--- a/Open Loop Systems/Open Loop Ciruit/tempPWM_chart.xlsx
+++ b/Open Loop Systems/Open Loop Ciruit/tempPWM_chart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Documents\Embedded Systems\lAB 5 DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josht_sh96rlx\Documents\_junior\Embedded\Repository\lab-6taking-control-over-your-embedded-life-gouldj\Open Loop Systems\Open Loop Ciruit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{53B5CDA1-9CE2-497B-B519-207E0A337663}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6060" xr2:uid="{53B5CDA1-9CE2-497B-B519-207E0A337663}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,6 +147,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempature against</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> PWM</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -220,6 +250,78 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$12</c:f>
@@ -312,8 +414,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -326,6 +429,7 @@
         <c:axId val="407735232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1176,13 +1280,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>251460</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>72389</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1509,17 +1613,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7791861-2662-4114-B6F3-495CD5F7CBB2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1533,7 +1637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1547,7 +1651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1665,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>33</v>
       </c>
@@ -1575,7 +1679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1589,7 +1693,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>66</v>
       </c>
@@ -1603,7 +1707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>80</v>
       </c>
@@ -1617,7 +1721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>99</v>
       </c>
@@ -1631,7 +1735,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1645,7 +1749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1687,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>0</v>
       </c>

--- a/Open Loop Systems/Open Loop Ciruit/tempPWM_chart.xlsx
+++ b/Open Loop Systems/Open Loop Ciruit/tempPWM_chart.xlsx
@@ -374,34 +374,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.5</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.5</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.700000000000003</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.299999999999997</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.1</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1659,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>81</v>
@@ -1687,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1">
         <v>66</v>
@@ -1715,7 +1715,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>62</v>
@@ -1729,7 +1729,7 @@
         <v>60</v>
       </c>
       <c r="C8" s="1">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1">
         <v>61</v>
@@ -1743,7 +1743,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="1">
-        <v>35.700000000000003</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1757,7 +1757,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="1">
-        <v>35.299999999999997</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -1771,7 +1771,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="1">
-        <v>35.1</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -1785,7 +1785,7 @@
         <v>100</v>
       </c>
       <c r="C12" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
